--- a/Hw2/report/p1_1_data_sin.xlsx
+++ b/Hw2/report/p1_1_data_sin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c80ea3748121df21/repos/simulation/Hw2/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{72D74676-D70E-4E10-8513-5AAAFAB6CA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{7501C370-B486-8943-8DCC-61B78A496875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p1_1_data" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +205,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -632,8 +638,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,142 +962,142 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>2.2800000000000001E-2</c:v>
+                  <c:v>2.1600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.35E-2</c:v>
+                  <c:v>2.24E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.46E-2</c:v>
+                  <c:v>2.3300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5499999999999998E-2</c:v>
+                  <c:v>2.4199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6800000000000001E-2</c:v>
+                  <c:v>2.5100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>2.64E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2.76E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.8899999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.09E-2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2199999999999999E-2</c:v>
+                  <c:v>3.04E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4200000000000001E-2</c:v>
+                  <c:v>3.2099999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>3.3799999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.78E-2</c:v>
+                  <c:v>3.5299999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>4.0500000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.3200000000000002E-2</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6300000000000001E-2</c:v>
+                  <c:v>4.3299999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9399999999999999E-2</c:v>
+                  <c:v>4.6100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3699999999999998E-2</c:v>
+                  <c:v>5.0200000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.8599999999999999E-2</c:v>
+                  <c:v>5.4699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.4399999999999999E-2</c:v>
+                  <c:v>5.9799999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0900000000000005E-2</c:v>
+                  <c:v>6.6299999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.9399999999999998E-2</c:v>
+                  <c:v>7.3800000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.0499999999999997E-2</c:v>
+                  <c:v>8.3599999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1046</c:v>
+                  <c:v>9.6600000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1234</c:v>
+                  <c:v>0.11409999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.15090000000000001</c:v>
+                  <c:v>0.1389</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.19320000000000001</c:v>
+                  <c:v>0.17710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2676</c:v>
+                  <c:v>0.2462</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.43390000000000001</c:v>
+                  <c:v>0.39939999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1328</c:v>
+                  <c:v>1.0524</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7074</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.48280000000000001</c:v>
+                  <c:v>0.46739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>0.27189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20549999999999999</c:v>
+                  <c:v>0.1923</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1593</c:v>
+                  <c:v>0.1487</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1303</c:v>
+                  <c:v>0.12139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1104</c:v>
+                  <c:v>0.1028</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.6000000000000002E-2</c:v>
+                  <c:v>8.8700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.4900000000000003E-2</c:v>
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.5899999999999995E-2</c:v>
+                  <c:v>7.0300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.88E-2</c:v>
+                  <c:v>6.3700000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.2899999999999998E-2</c:v>
+                  <c:v>5.8200000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.8200000000000002E-2</c:v>
+                  <c:v>5.3900000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.3900000000000003E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.04E-2</c:v>
+                  <c:v>4.6600000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.7399999999999998E-2</c:v>
+                  <c:v>4.3700000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.4400000000000002E-2</c:v>
+                  <c:v>4.1099999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,142 +1293,142 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>3.1199999999999999E-2</c:v>
+                  <c:v>2.98E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2500000000000001E-2</c:v>
+                  <c:v>3.0800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.39E-2</c:v>
+                  <c:v>3.1899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>3.2899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6499999999999998E-2</c:v>
+                  <c:v>3.4500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7699999999999997E-2</c:v>
+                  <c:v>3.56E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9100000000000003E-2</c:v>
+                  <c:v>3.73E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1200000000000001E-2</c:v>
+                  <c:v>3.8800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3299999999999998E-2</c:v>
+                  <c:v>4.07E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.58E-2</c:v>
+                  <c:v>4.2799999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7800000000000002E-2</c:v>
+                  <c:v>4.4900000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0299999999999997E-2</c:v>
+                  <c:v>4.7399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3199999999999997E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>5.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0199999999999997E-2</c:v>
+                  <c:v>5.6599999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4500000000000002E-2</c:v>
+                  <c:v>6.0400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.9599999999999995E-2</c:v>
+                  <c:v>6.5100000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.5700000000000003E-2</c:v>
+                  <c:v>7.0599999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.2799999999999999E-2</c:v>
+                  <c:v>7.7100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.11E-2</c:v>
+                  <c:v>8.4900000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1016</c:v>
+                  <c:v>9.4200000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1153</c:v>
+                  <c:v>0.1062</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.13270000000000001</c:v>
+                  <c:v>0.12239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.15579999999999999</c:v>
+                  <c:v>0.14380000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.18970000000000001</c:v>
+                  <c:v>0.1744</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2417</c:v>
+                  <c:v>0.22209999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.33310000000000001</c:v>
+                  <c:v>0.30609999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.53720000000000001</c:v>
+                  <c:v>0.49419999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3939999999999999</c:v>
+                  <c:v>1.2949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0929000000000002</c:v>
+                  <c:v>1.9148000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.58889999999999998</c:v>
+                  <c:v>0.57010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.34989999999999999</c:v>
+                  <c:v>0.33050000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.24840000000000001</c:v>
+                  <c:v>0.2319</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.19309999999999999</c:v>
+                  <c:v>0.17949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.15759999999999999</c:v>
+                  <c:v>0.14580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.13289999999999999</c:v>
+                  <c:v>0.12280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1145</c:v>
+                  <c:v>0.1056</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1004</c:v>
+                  <c:v>9.3200000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.9800000000000005E-2</c:v>
+                  <c:v>8.3199999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.1199999999999994E-2</c:v>
+                  <c:v>7.4899999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.3099999999999998E-2</c:v>
+                  <c:v>6.8099999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.7799999999999999E-2</c:v>
+                  <c:v>6.2600000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.2300000000000001E-2</c:v>
+                  <c:v>5.7700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.79E-2</c:v>
+                  <c:v>5.3699999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.45E-2</c:v>
+                  <c:v>5.0200000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.0599999999999999E-2</c:v>
+                  <c:v>4.6800000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,127 +1953,127 @@
                   <c:v>1.6500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6899999999999998E-2</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7399999999999999E-2</c:v>
+                  <c:v>1.7500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.02E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.3300000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1043</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64159999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1245</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.0699999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8700000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.06E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.29E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.64E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.1199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.4799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.6600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.6500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.2499999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1018</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.18079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.59019999999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.2636</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.1217</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.8700000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.7799999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.6800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.9300000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.3799999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.98E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.6800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.4199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.2200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.06E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.78E-2</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.6899999999999998E-2</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5900000000000001E-2</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1.5299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.44E-2</c:v>
+                  <c:v>1.4500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.37E-2</c:v>
+                  <c:v>1.38E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.3100000000000001E-2</c:v>
+                  <c:v>1.3299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.26E-2</c:v>
+                  <c:v>1.2699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1.21E-2</c:v>
@@ -2260,139 +2269,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>1.89E-2</c:v>
+                  <c:v>1.9099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9800000000000002E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0400000000000001E-2</c:v>
+                  <c:v>2.07E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1499999999999998E-2</c:v>
+                  <c:v>2.1600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.2599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.64E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.81E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0458000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.45440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7199999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.1299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.6100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.1799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.8399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.64E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.3099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>2.23E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.46E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9700000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.4299999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.7499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.1000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.5699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.1499999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.9400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.5199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.11119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.16159999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.28710000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.96020000000000005</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.43109999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.19789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.13139999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.8799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.9299999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.6400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.7200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.04E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.53E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.1300000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.5200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.2800000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.8899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.75E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.6100000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.4799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.3900000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.29E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.1899999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>2.12E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4107,12 +4116,12 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="B2" sqref="B2:E92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4129,1551 +4138,1551 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0.4</v>
       </c>
-      <c r="B2">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="C2">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="D2">
-        <v>1.4565999999999999</v>
-      </c>
-      <c r="E2">
-        <v>1.5743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.98E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.4564999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.6829000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>0.41</v>
       </c>
-      <c r="B3">
-        <v>2.35E-2</v>
-      </c>
-      <c r="C3">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="1">
+        <v>2.24E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="D3" s="1">
         <v>1.4568000000000001</v>
       </c>
-      <c r="E3">
-        <v>1.5497000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="1">
+        <v>1.6548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>0.42</v>
       </c>
-      <c r="B4">
-        <v>2.46E-2</v>
-      </c>
-      <c r="C4">
-        <v>3.39E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.4571000000000001</v>
-      </c>
-      <c r="E4">
-        <v>1.4576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.6837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>0.43</v>
       </c>
-      <c r="B5">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="C5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.4574</v>
-      </c>
-      <c r="E5">
-        <v>1.5262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.4573</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>0.44</v>
       </c>
-      <c r="B6">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="C6">
-        <v>3.6499999999999998E-2</v>
-      </c>
-      <c r="D6">
-        <v>1.4577</v>
-      </c>
-      <c r="E6">
-        <v>1.4581999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.4576</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.6559999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>0.45</v>
       </c>
-      <c r="B7">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C7">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="D7">
-        <v>1.458</v>
-      </c>
-      <c r="E7">
-        <v>1.5762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>2.64E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.56E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.4579</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.6563000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>0.46</v>
       </c>
-      <c r="B8">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="C8">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="1">
+        <v>2.76E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.73E-2</v>
+      </c>
+      <c r="D8" s="1">
         <v>1.4581999999999999</v>
       </c>
-      <c r="E8">
-        <v>1.5515000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="1">
+        <v>1.6852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>0.47</v>
       </c>
-      <c r="B9">
-        <v>3.09E-2</v>
-      </c>
-      <c r="C9">
-        <v>4.1200000000000001E-2</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="1">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="D9" s="1">
         <v>1.4584999999999999</v>
       </c>
-      <c r="E9">
-        <v>1.5518000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="1">
+        <v>1.657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>0.48</v>
       </c>
-      <c r="B10">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="C10">
-        <v>4.3299999999999998E-2</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="1">
+        <v>3.04E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.07E-2</v>
+      </c>
+      <c r="D10" s="1">
         <v>1.4588000000000001</v>
       </c>
-      <c r="E10">
-        <v>1.5043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="1">
+        <v>1.6573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>0.49</v>
       </c>
-      <c r="B11">
-        <v>3.4200000000000001E-2</v>
-      </c>
-      <c r="C11">
-        <v>4.58E-2</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="1">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="D11" s="1">
         <v>1.4591000000000001</v>
       </c>
-      <c r="E11">
-        <v>1.6032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="1">
+        <v>1.9959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>0.5</v>
       </c>
-      <c r="B12">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C12">
-        <v>4.7800000000000002E-2</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="1">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="D12" s="1">
         <v>1.4594</v>
       </c>
-      <c r="E12">
-        <v>1.5284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="1">
+        <v>1.6303000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>0.51</v>
       </c>
-      <c r="B13">
-        <v>3.78E-2</v>
-      </c>
-      <c r="C13">
-        <v>5.0299999999999997E-2</v>
-      </c>
-      <c r="D13">
-        <v>1.4596</v>
-      </c>
-      <c r="E13">
-        <v>1.4823</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.4597</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.7470000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>0.52</v>
       </c>
-      <c r="B14">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="C14">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="1">
         <v>1.4599</v>
       </c>
-      <c r="E14">
-        <v>1.4603999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="1">
+        <v>1.6308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>0.53</v>
       </c>
-      <c r="B15">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="C15">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="1">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D15" s="1">
         <v>1.4601999999999999</v>
       </c>
-      <c r="E15">
-        <v>1.4827999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="1">
+        <v>1.6311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>0.54</v>
       </c>
-      <c r="B16">
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="C16">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="1">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="D16" s="1">
         <v>1.4604999999999999</v>
       </c>
-      <c r="E16">
-        <v>1.4830000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="1">
+        <v>1.6046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B17">
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="C17">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="1">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="D17" s="1">
         <v>1.4608000000000001</v>
       </c>
-      <c r="E17">
-        <v>1.5061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="1">
+        <v>1.6049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B18">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="C18">
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="D18">
-        <v>1.4610000000000001</v>
-      </c>
-      <c r="E18">
-        <v>1.4835</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.4611000000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.5791999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>0.56999999999999995</v>
       </c>
-      <c r="B19">
-        <v>5.8599999999999999E-2</v>
-      </c>
-      <c r="C19">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="D19">
-        <v>1.4613</v>
-      </c>
-      <c r="E19">
-        <v>1.5065</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.4614</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.5794999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B20">
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="C20">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="1">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="D20" s="1">
         <v>1.4616</v>
       </c>
-      <c r="E20">
-        <v>1.4839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="1">
+        <v>1.5304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>0.59</v>
       </c>
-      <c r="B21">
-        <v>7.0900000000000005E-2</v>
-      </c>
-      <c r="C21">
-        <v>9.11E-2</v>
-      </c>
-      <c r="D21">
-        <v>1.4618</v>
-      </c>
-      <c r="E21">
-        <v>1.462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.4619</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.5548999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>0.6</v>
       </c>
-      <c r="B22">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="C22">
-        <v>0.1016</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="D22" s="1">
         <v>1.4621</v>
       </c>
-      <c r="E22">
-        <v>1.4843</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="1">
+        <v>1.5073000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>0.61</v>
       </c>
-      <c r="B23">
-        <v>9.0499999999999997E-2</v>
-      </c>
-      <c r="C23">
-        <v>0.1153</v>
-      </c>
-      <c r="D23">
-        <v>1.4622999999999999</v>
-      </c>
-      <c r="E23">
-        <v>1.4845999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.1062</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.4623999999999999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.6331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>0.62</v>
       </c>
-      <c r="B24">
-        <v>0.1046</v>
-      </c>
-      <c r="C24">
-        <v>0.13270000000000001</v>
-      </c>
-      <c r="D24">
-        <v>1.4624999999999999</v>
-      </c>
-      <c r="E24">
+      <c r="B24" s="1">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="D24" s="1">
         <v>1.4625999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="1">
+        <v>1.5077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>0.63</v>
       </c>
-      <c r="B25">
-        <v>0.1234</v>
-      </c>
-      <c r="C25">
-        <v>0.15579999999999999</v>
-      </c>
-      <c r="D25">
-        <v>1.4628000000000001</v>
-      </c>
-      <c r="E25">
-        <v>1.4628000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.4629000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.4851000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>0.64</v>
       </c>
-      <c r="B26">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="C26">
-        <v>0.18970000000000001</v>
-      </c>
-      <c r="D26">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="E26">
-        <v>1.4630000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <v>0.1389</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.1744</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.4631000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.4853000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>0.65</v>
       </c>
-      <c r="B27">
-        <v>0.19320000000000001</v>
-      </c>
-      <c r="C27">
-        <v>0.2417</v>
-      </c>
-      <c r="D27">
-        <v>1.4632000000000001</v>
-      </c>
-      <c r="E27">
-        <v>1.4632000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.22209999999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.4633</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.5319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>0.66</v>
       </c>
-      <c r="B28">
-        <v>0.2676</v>
-      </c>
-      <c r="C28">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="D28">
-        <v>1.4634</v>
-      </c>
-      <c r="E28">
-        <v>1.4634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="1">
+        <v>0.2462</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.30609999999999998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.4636</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.4857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>0.67</v>
       </c>
-      <c r="B29">
-        <v>0.43390000000000001</v>
-      </c>
-      <c r="C29">
-        <v>0.53720000000000001</v>
-      </c>
-      <c r="D29">
-        <v>1.4636</v>
-      </c>
-      <c r="E29">
-        <v>1.4636</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>0.39939999999999998</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.49419999999999997</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.4638</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>0.68</v>
       </c>
-      <c r="B30">
-        <v>1.1328</v>
-      </c>
-      <c r="C30">
-        <v>1.3939999999999999</v>
-      </c>
-      <c r="D30">
-        <v>1.4637</v>
-      </c>
-      <c r="E30">
-        <v>1.4637</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <v>1.0524</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.464</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>0.69</v>
       </c>
-      <c r="B31">
-        <v>1.7074</v>
-      </c>
-      <c r="C31">
-        <v>2.0929000000000002</v>
-      </c>
-      <c r="D31">
-        <v>1.4535</v>
-      </c>
-      <c r="E31">
-        <v>1.4535</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="1">
+        <v>1.5625</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.9148000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.4533</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.4534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>0.7</v>
       </c>
-      <c r="B32">
-        <v>0.48280000000000001</v>
-      </c>
-      <c r="C32">
-        <v>0.58889999999999998</v>
-      </c>
-      <c r="D32">
-        <v>1.4536</v>
-      </c>
-      <c r="E32">
-        <v>1.4536</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.4321999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.4537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>0.71</v>
       </c>
-      <c r="B33">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="C33">
-        <v>0.34989999999999999</v>
-      </c>
-      <c r="D33">
-        <v>1.4538</v>
-      </c>
-      <c r="E33">
-        <v>1.4539</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="1">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.4117</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.4326000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>0.72</v>
       </c>
-      <c r="B34">
-        <v>0.20549999999999999</v>
-      </c>
-      <c r="C34">
-        <v>0.24840000000000001</v>
-      </c>
-      <c r="D34">
-        <v>1.4326000000000001</v>
-      </c>
-      <c r="E34">
-        <v>1.4540999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="1">
+        <v>0.1923</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.2319</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.3917999999999999</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.3918999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>0.73</v>
       </c>
-      <c r="B35">
-        <v>0.1593</v>
-      </c>
-      <c r="C35">
-        <v>0.19309999999999999</v>
-      </c>
-      <c r="D35">
-        <v>1.4120999999999999</v>
-      </c>
-      <c r="E35">
-        <v>1.4543999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="1">
+        <v>0.1487</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.3725000000000001</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.4332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>0.74</v>
       </c>
-      <c r="B36">
-        <v>0.1303</v>
-      </c>
-      <c r="C36">
-        <v>0.15759999999999999</v>
-      </c>
-      <c r="D36">
-        <v>1.4123000000000001</v>
-      </c>
-      <c r="E36">
-        <v>1.4333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="1">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.3535999999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.3925000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>0.75</v>
       </c>
-      <c r="B37">
-        <v>0.1104</v>
-      </c>
-      <c r="C37">
-        <v>0.13289999999999999</v>
-      </c>
-      <c r="D37">
-        <v>1.4126000000000001</v>
-      </c>
-      <c r="E37">
-        <v>1.4336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="1">
+        <v>0.1028</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.3352999999999999</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.3928</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>0.76</v>
       </c>
-      <c r="B38">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="C38">
-        <v>0.1145</v>
-      </c>
-      <c r="D38">
-        <v>1.4128000000000001</v>
-      </c>
-      <c r="E38">
-        <v>1.4338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="1">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.1056</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.3174999999999999</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.3358000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>0.77</v>
       </c>
-      <c r="B39">
-        <v>8.4900000000000003E-2</v>
-      </c>
-      <c r="C39">
-        <v>0.1004</v>
-      </c>
-      <c r="D39">
-        <v>1.3732</v>
-      </c>
-      <c r="E39">
-        <v>1.4133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="1">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.3001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.3547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>0.78</v>
       </c>
-      <c r="B40">
-        <v>7.5899999999999995E-2</v>
-      </c>
-      <c r="C40">
-        <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="D40">
-        <v>1.3734</v>
-      </c>
-      <c r="E40">
-        <v>1.4136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.2831999999999999</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.3935999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>0.79</v>
       </c>
-      <c r="B41">
-        <v>6.88E-2</v>
-      </c>
-      <c r="C41">
-        <v>8.1199999999999994E-2</v>
-      </c>
-      <c r="D41">
-        <v>1.3545</v>
-      </c>
-      <c r="E41">
-        <v>1.4138999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="1">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.2667999999999999</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.3552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>0.8</v>
       </c>
-      <c r="B42">
-        <v>6.2899999999999998E-2</v>
-      </c>
-      <c r="C42">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="D42">
-        <v>1.3005</v>
-      </c>
-      <c r="E42">
-        <v>1.4349000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="1">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.2506999999999999</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.3369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>0.81</v>
       </c>
-      <c r="B43">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="C43">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="D43">
-        <v>1.3007</v>
-      </c>
-      <c r="E43">
-        <v>1.4144000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="1">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.2351000000000001</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.3190999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>0.82</v>
       </c>
-      <c r="B44">
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="C44">
-        <v>6.2300000000000001E-2</v>
-      </c>
-      <c r="D44">
-        <v>1.3551</v>
-      </c>
-      <c r="E44">
-        <v>1.3944000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B44" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.2198</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.2679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>0.83</v>
       </c>
-      <c r="B45">
-        <v>5.04E-2</v>
-      </c>
-      <c r="C45">
-        <v>5.79E-2</v>
-      </c>
-      <c r="D45">
-        <v>1.2673000000000001</v>
-      </c>
-      <c r="E45">
-        <v>1.3946000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.3019000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>0.84</v>
       </c>
-      <c r="B46">
-        <v>4.7399999999999998E-2</v>
-      </c>
-      <c r="C46">
-        <v>5.45E-2</v>
-      </c>
-      <c r="D46">
-        <v>1.2842</v>
-      </c>
-      <c r="E46">
-        <v>1.3752</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.1903999999999999</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.3022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>0.85</v>
       </c>
-      <c r="B47">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="C47">
-        <v>5.0599999999999999E-2</v>
-      </c>
-      <c r="D47">
-        <v>1.2201</v>
-      </c>
-      <c r="E47">
-        <v>1.3754</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.1762999999999999</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.3024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>1.8</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="C48">
-        <v>1.89E-2</v>
-      </c>
-      <c r="D48">
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="E48">
-        <v>0.52869999999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C48" s="1">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>1.81</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="C49">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="D49">
-        <v>0.5524</v>
-      </c>
-      <c r="E49">
-        <v>0.51770000000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C49" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>1.82</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="C50">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="D50">
-        <v>0.5494</v>
-      </c>
-      <c r="E50">
-        <v>0.51770000000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C50" s="1">
+        <v>2.07E-2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>1.83</v>
       </c>
-      <c r="B51">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="C51">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="D51">
+      <c r="B51" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="D51" s="1">
         <v>0.5464</v>
       </c>
-      <c r="E51">
-        <v>0.51239999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E51" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>1.84</v>
       </c>
-      <c r="B52">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="C52">
-        <v>2.23E-2</v>
-      </c>
-      <c r="D52">
+      <c r="B52" s="1">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="D52" s="1">
         <v>0.54339999999999999</v>
       </c>
-      <c r="E52">
-        <v>0.51239999999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E52" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>1.85</v>
       </c>
-      <c r="B53">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C53">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="D53">
-        <v>0.54039999999999999</v>
-      </c>
-      <c r="E53">
-        <v>0.52039999999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>1.86</v>
       </c>
-      <c r="B54">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="C54">
-        <v>2.46E-2</v>
-      </c>
-      <c r="D54">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="E54">
-        <v>0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>1.87</v>
       </c>
-      <c r="B55">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="C55">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="D55">
-        <v>0.53459999999999996</v>
-      </c>
-      <c r="E55">
-        <v>0.5232</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B55" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2.64E-2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>1.88</v>
       </c>
-      <c r="B56">
-        <v>2.06E-2</v>
-      </c>
-      <c r="C56">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="D56">
+      <c r="B56" s="1">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.81E-2</v>
+      </c>
+      <c r="D56" s="1">
         <v>0.53180000000000005</v>
       </c>
-      <c r="E56">
-        <v>0.52039999999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E56" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>1.89</v>
       </c>
-      <c r="B57">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="C57">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="D57">
+      <c r="B57" s="1">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D57" s="1">
         <v>0.52900000000000003</v>
       </c>
-      <c r="E57">
-        <v>0.5151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E57" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>1.9</v>
       </c>
-      <c r="B58">
-        <v>2.29E-2</v>
-      </c>
-      <c r="C58">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="D58">
+      <c r="B58" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D58" s="1">
         <v>0.5262</v>
       </c>
-      <c r="E58">
-        <v>0.51239999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E58" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>1.91</v>
       </c>
-      <c r="B59">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="C59">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="D59">
+      <c r="B59" s="1">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="D59" s="1">
         <v>0.52339999999999998</v>
       </c>
-      <c r="E59">
-        <v>0.50980000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E59" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>1.92</v>
       </c>
-      <c r="B60">
-        <v>2.64E-2</v>
-      </c>
-      <c r="C60">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="D60">
-        <v>0.52059999999999995</v>
-      </c>
-      <c r="E60">
-        <v>0.50719999999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="1">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>1.93</v>
       </c>
-      <c r="B61">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="C61">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D61">
-        <v>0.51790000000000003</v>
-      </c>
-      <c r="E61">
-        <v>0.50980000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B61" s="1">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>1.94</v>
       </c>
-      <c r="B62">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="C62">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="D62">
+      <c r="B62" s="1">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="D62" s="1">
         <v>0.51529999999999998</v>
       </c>
-      <c r="E62">
-        <v>0.50980000000000003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E62" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>1.95</v>
       </c>
-      <c r="B63">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="C63">
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="D63">
+      <c r="B63" s="1">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="D63" s="1">
         <v>0.51259999999999994</v>
       </c>
-      <c r="E63">
-        <v>0.50980000000000003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E63" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>1.96</v>
       </c>
-      <c r="B64">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="C64">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="D64">
+      <c r="B64" s="1">
+        <v>4.02E-2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="D64" s="1">
         <v>0.51</v>
       </c>
-      <c r="E64">
-        <v>0.50719999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E64" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>1.97</v>
       </c>
-      <c r="B65">
-        <v>4.6600000000000003E-2</v>
-      </c>
-      <c r="C65">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D65">
+      <c r="B65" s="1">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="C65" s="1">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="D65" s="1">
         <v>0.50739999999999996</v>
       </c>
-      <c r="E65">
-        <v>0.50460000000000005</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E65" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>1.98</v>
       </c>
-      <c r="B66">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="C66">
-        <v>8.5199999999999998E-2</v>
-      </c>
-      <c r="D66">
+      <c r="B66" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="D66" s="1">
         <v>0.50480000000000003</v>
       </c>
-      <c r="E66">
-        <v>0.50460000000000005</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E66" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>1.99</v>
       </c>
-      <c r="B67">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="C67">
-        <v>0.11119999999999999</v>
-      </c>
-      <c r="D67">
+      <c r="B67" s="1">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="D67" s="1">
         <v>0.50229999999999997</v>
       </c>
-      <c r="E67">
-        <v>0.50209999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E67" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>2</v>
       </c>
-      <c r="B68">
-        <v>0.1018</v>
-      </c>
-      <c r="C68">
-        <v>0.16159999999999999</v>
-      </c>
-      <c r="D68">
-        <v>0.49969999999999998</v>
-      </c>
-      <c r="E68">
-        <v>0.49959999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B68" s="1">
+        <v>0.1043</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>2.0099999999999998</v>
       </c>
-      <c r="B69">
-        <v>0.18079999999999999</v>
-      </c>
-      <c r="C69">
-        <v>0.28710000000000002</v>
-      </c>
-      <c r="D69">
-        <v>0.49719999999999998</v>
-      </c>
-      <c r="E69">
-        <v>0.49709999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="1">
+        <v>0.18690000000000001</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.49730000000000002</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>2.02</v>
       </c>
-      <c r="B70">
-        <v>0.59019999999999995</v>
-      </c>
-      <c r="C70">
-        <v>0.96020000000000005</v>
-      </c>
-      <c r="D70">
+      <c r="B70" s="1">
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.0458000000000001</v>
+      </c>
+      <c r="D70" s="1">
         <v>0.49480000000000002</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>0.49459999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>2.0299999999999998</v>
       </c>
-      <c r="B71">
-        <v>0.2636</v>
-      </c>
-      <c r="C71">
-        <v>0.43109999999999998</v>
-      </c>
-      <c r="D71">
-        <v>0.49349999999999999</v>
-      </c>
-      <c r="E71">
+      <c r="B71" s="1">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.45440000000000003</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="E71" s="1">
         <v>0.49340000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>2.04</v>
       </c>
-      <c r="B72">
-        <v>0.1217</v>
-      </c>
-      <c r="C72">
-        <v>0.19789999999999999</v>
-      </c>
-      <c r="D72">
-        <v>0.49109999999999998</v>
-      </c>
-      <c r="E72">
-        <v>0.4909</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B72" s="1">
+        <v>0.1245</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>2.0499999999999998</v>
       </c>
-      <c r="B73">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="C73">
-        <v>0.13139999999999999</v>
-      </c>
-      <c r="D73">
-        <v>0.48870000000000002</v>
-      </c>
-      <c r="E73">
-        <v>0.48849999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B73" s="1">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.48859999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>2.06</v>
       </c>
-      <c r="B74">
-        <v>5.7799999999999997E-2</v>
-      </c>
-      <c r="C74">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="D74">
-        <v>0.48870000000000002</v>
-      </c>
-      <c r="E74">
+      <c r="B74" s="1">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>9.98E-2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="E74" s="1">
         <v>0.48620000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>2.0699999999999998</v>
       </c>
-      <c r="B75">
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="C75">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="D75">
-        <v>0.48870000000000002</v>
-      </c>
-      <c r="E75">
+      <c r="B75" s="1">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="E75" s="1">
         <v>0.48380000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>2.08</v>
       </c>
-      <c r="B76">
-        <v>3.9300000000000002E-2</v>
-      </c>
-      <c r="C76">
-        <v>6.6400000000000001E-2</v>
-      </c>
-      <c r="D76">
-        <v>0.4864</v>
-      </c>
-      <c r="E76">
+      <c r="B76" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="E76" s="1">
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>2.09</v>
       </c>
-      <c r="B77">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="C77">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="D77">
-        <v>0.48880000000000001</v>
-      </c>
-      <c r="E77">
+      <c r="B77" s="1">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="E77" s="1">
         <v>0.47920000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>2.1</v>
       </c>
-      <c r="B78">
-        <v>2.98E-2</v>
-      </c>
-      <c r="C78">
-        <v>5.04E-2</v>
-      </c>
-      <c r="D78">
-        <v>0.48880000000000001</v>
-      </c>
-      <c r="E78">
+      <c r="B78" s="1">
+        <v>3.04E-2</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="E78" s="1">
         <v>0.47689999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>2.11</v>
       </c>
-      <c r="B79">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="C79">
-        <v>4.53E-2</v>
-      </c>
-      <c r="D79">
+      <c r="B79" s="1">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="D79" s="1">
         <v>0.49370000000000003</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>0.47460000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>2.12</v>
       </c>
-      <c r="B80">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="C80">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="D80">
+      <c r="B80" s="1">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="D80" s="1">
         <v>0.49370000000000003</v>
       </c>
-      <c r="E80">
-        <v>0.4723</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E80" s="1">
+        <v>0.47239999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>2.13</v>
       </c>
-      <c r="B81">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="C81">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D81">
-        <v>0.49130000000000001</v>
-      </c>
-      <c r="E81">
+      <c r="B81" s="1">
+        <v>2.24E-2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="E81" s="1">
         <v>0.47010000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>2.14</v>
       </c>
-      <c r="B82">
-        <v>2.06E-2</v>
-      </c>
-      <c r="C82">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="D82">
+      <c r="B82" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="D82" s="1">
         <v>0.49370000000000003</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>0.46789999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>2.15</v>
       </c>
-      <c r="B83">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C83">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="D83">
-        <v>0.49130000000000001</v>
-      </c>
-      <c r="E83">
-        <v>0.4657</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B83" s="1">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.49380000000000002</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.46579999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>2.16</v>
       </c>
-      <c r="B84">
-        <v>1.78E-2</v>
-      </c>
-      <c r="C84">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="D84">
-        <v>0.4889</v>
-      </c>
-      <c r="E84">
+      <c r="B84" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.49380000000000002</v>
+      </c>
+      <c r="E84" s="1">
         <v>0.46360000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>2.17</v>
       </c>
-      <c r="B85">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="C85">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="D85">
+      <c r="B85" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="D85" s="1">
         <v>0.49380000000000002</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>0.46139999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>2.1800000000000002</v>
       </c>
-      <c r="B86">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="C86">
-        <v>2.75E-2</v>
-      </c>
-      <c r="D86">
+      <c r="B86" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="D86" s="1">
         <v>0.49380000000000002</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>0.45929999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>2.19</v>
       </c>
-      <c r="B87">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C87">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="D87">
+      <c r="B87" s="1">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2.64E-2</v>
+      </c>
+      <c r="D87" s="1">
         <v>0.49380000000000002</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>0.4572</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B88">
-        <v>1.44E-2</v>
-      </c>
-      <c r="C88">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="D88">
+      <c r="B88" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2.52E-2</v>
+      </c>
+      <c r="D88" s="1">
         <v>0.49380000000000002</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>0.4551</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>2.21</v>
       </c>
-      <c r="B89">
-        <v>1.37E-2</v>
-      </c>
-      <c r="C89">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="D89">
+      <c r="B89" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2.41E-2</v>
+      </c>
+      <c r="D89" s="1">
         <v>0.49380000000000002</v>
       </c>
-      <c r="E89">
-        <v>0.45300000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E89" s="1">
+        <v>0.4531</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>2.2200000000000002</v>
       </c>
-      <c r="B90">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="C90">
-        <v>2.29E-2</v>
-      </c>
-      <c r="D90">
-        <v>0.49630000000000002</v>
-      </c>
-      <c r="E90">
+      <c r="B90" s="1">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.49380000000000002</v>
+      </c>
+      <c r="E90" s="1">
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>2.23</v>
       </c>
-      <c r="B91">
-        <v>1.26E-2</v>
-      </c>
-      <c r="C91">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="D91">
-        <v>0.49380000000000002</v>
-      </c>
-      <c r="E91">
+      <c r="B91" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.49390000000000001</v>
+      </c>
+      <c r="E91" s="1">
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>1.21E-2</v>
       </c>
-      <c r="C92">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D92">
-        <v>0.4914</v>
-      </c>
-      <c r="E92">
-        <v>0.44690000000000002</v>
+      <c r="C92" s="1">
+        <v>2.12E-2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.49390000000000001</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.44700000000000001</v>
       </c>
     </row>
   </sheetData>
